--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2388705.545380858</v>
+        <v>-2391319.823997309</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.3686489236315</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>297.607293590734</v>
+        <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0186029205788</v>
+        <v>238.6581953537768</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>91.11034837618719</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674305</v>
+        <v>14.08691327674306</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>53.02159927470798</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
         <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869333</v>
+        <v>100.3033462869334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792916</v>
+        <v>94.83943180792917</v>
       </c>
       <c r="S4" t="n">
         <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.1102960603998</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>153.0018773998072</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2796191728997</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>14.58042755510832</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>37.68656955246514</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>57.68750238080805</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>146.5990350281144</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>20.29515656310261</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>130.3863236130828</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7520933485929</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.21070476472005</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>126.6035148834794</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>65.06198119183895</v>
+        <v>51.36569740310292</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>108.2950343703261</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428088</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>178.2798710842933</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>33.82351723687706</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>65.56423921895157</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3007,10 +3007,10 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317892</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3946,7 +3946,7 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,7 +3955,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
         <v>262.2383508445512</v>
@@ -3964,7 +3964,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1150.459761123536</v>
+        <v>1502.579594759095</v>
       </c>
       <c r="C2" t="n">
-        <v>781.4972441831244</v>
+        <v>1133.617077818684</v>
       </c>
       <c r="D2" t="n">
-        <v>781.4972441831244</v>
+        <v>775.3513792119331</v>
       </c>
       <c r="E2" t="n">
-        <v>395.7089915848801</v>
+        <v>775.3513792119329</v>
       </c>
       <c r="F2" t="n">
-        <v>359.9830835812115</v>
+        <v>775.3513792119329</v>
       </c>
       <c r="G2" t="n">
         <v>359.9830835812115</v>
@@ -4328,16 +4328,16 @@
         <v>59.36965571178318</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734994</v>
+        <v>223.6389510734998</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447442</v>
+        <v>520.574560644744</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185029</v>
+        <v>925.8512030185025</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552358</v>
+        <v>1408.468993552357</v>
       </c>
       <c r="N2" t="n">
         <v>1903.509852877249</v>
@@ -4361,19 +4361,19 @@
         <v>2851.450538338333</v>
       </c>
       <c r="U2" t="n">
-        <v>2597.896393974112</v>
+        <v>2610.381654142599</v>
       </c>
       <c r="V2" t="n">
-        <v>2266.833506630542</v>
+        <v>2279.318766799029</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.064851360428</v>
+        <v>2279.318766799029</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.599093099348</v>
+        <v>2279.318766799029</v>
       </c>
       <c r="Y2" t="n">
-        <v>1150.459761123536</v>
+        <v>1889.179434823217</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3103593400832</v>
+        <v>1341.528820902747</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8573300589562</v>
+        <v>1167.07579162162</v>
       </c>
       <c r="D3" t="n">
-        <v>607.922920397705</v>
+        <v>1018.141381960368</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6854653922495</v>
+        <v>858.9039269549128</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1509074191345</v>
+        <v>712.3693689817977</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6295159672683</v>
+        <v>575.8479775299315</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182667</v>
+        <v>483.81732260449</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178318</v>
+        <v>469.5881172744465</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148953</v>
+        <v>548.6079372775584</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168904</v>
+        <v>761.8202204795535</v>
       </c>
       <c r="L3" t="n">
-        <v>924.3623438981792</v>
+        <v>1094.832988429796</v>
       </c>
       <c r="M3" t="n">
-        <v>1332.329405070861</v>
+        <v>1502.800049602477</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324652</v>
+        <v>1935.973429856269</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769182</v>
+        <v>2310.022650300799</v>
       </c>
       <c r="P3" t="n">
-        <v>2420.426415694429</v>
+        <v>2590.897060226046</v>
       </c>
       <c r="Q3" t="n">
-        <v>2558.264324026496</v>
+        <v>2936.711483416603</v>
       </c>
       <c r="R3" t="n">
-        <v>2558.264324026496</v>
+        <v>2968.482785589159</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.886246336681</v>
+        <v>2836.104707899345</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.605221056462</v>
+        <v>2642.823682619125</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.526960290582</v>
+        <v>2414.745421853246</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.374852058839</v>
+        <v>2179.593313621503</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.137495330638</v>
+        <v>1925.355956893301</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.285995125105</v>
+        <v>1717.504456687769</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.525696360151</v>
+        <v>1509.744157922815</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>508.5303502087904</v>
+        <v>2120.157342106068</v>
       </c>
       <c r="C4" t="n">
-        <v>508.5303502087904</v>
+        <v>1951.221159178161</v>
       </c>
       <c r="D4" t="n">
-        <v>508.5303502087904</v>
+        <v>1801.104519765825</v>
       </c>
       <c r="E4" t="n">
-        <v>454.9731792242368</v>
+        <v>1653.191426183432</v>
       </c>
       <c r="F4" t="n">
-        <v>308.0832317263264</v>
+        <v>1653.191426183432</v>
       </c>
       <c r="G4" t="n">
-        <v>308.0832317263264</v>
+        <v>1485.355883462589</v>
       </c>
       <c r="H4" t="n">
-        <v>160.686167112726</v>
+        <v>1337.958818848988</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178318</v>
+        <v>1236.642307448045</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945996</v>
+        <v>1272.569327125722</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778211</v>
+        <v>1461.445293514083</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386281</v>
+        <v>1758.66793737489</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945961</v>
+        <v>2082.436664730858</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.66886009458</v>
+        <v>2403.941511830842</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944345</v>
+        <v>2684.886979680607</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290282</v>
+        <v>2901.763680026543</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852898</v>
+        <v>2968.482785589159</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986303</v>
+        <v>2872.685379722564</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493185</v>
+        <v>2678.686790229446</v>
       </c>
       <c r="T4" t="n">
-        <v>1501.414138493185</v>
+        <v>2456.353157845204</v>
       </c>
       <c r="U4" t="n">
-        <v>1501.414138493185</v>
+        <v>2301.805806936308</v>
       </c>
       <c r="V4" t="n">
-        <v>1246.729650287298</v>
+        <v>2301.805806936308</v>
       </c>
       <c r="W4" t="n">
-        <v>957.3124802503379</v>
+        <v>2301.805806936308</v>
       </c>
       <c r="X4" t="n">
-        <v>729.3229293523206</v>
+        <v>2301.805806936308</v>
       </c>
       <c r="Y4" t="n">
-        <v>508.5303502087904</v>
+        <v>2301.805806936308</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744046</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761603</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>261.3167113269569</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2994.609700919369</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2663.546813575798</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2663.546813575798</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2290.081055314718</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>815.7608990065712</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>646.8247160786643</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>496.7080766663286</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>348.7949830839354</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>201.9050355860251</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>201.9050355860251</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1869.024343663434</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1677.33845949026</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1455.571844059787</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1166.46897718543</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>911.7844889795433</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W7" t="n">
-        <v>622.3673189425826</v>
+        <v>1446.191493878358</v>
       </c>
       <c r="X7" t="n">
-        <v>394.3777680445653</v>
+        <v>1218.201942980341</v>
       </c>
       <c r="Y7" t="n">
-        <v>394.3777680445653</v>
+        <v>997.4093638368109</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1619.798686923957</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.235319774533</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.235319774533</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2736.172432430963</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.403777160848</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.938018899768</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.798686923957</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.3754302374108</v>
+        <v>793.5809963705858</v>
       </c>
       <c r="C10" t="n">
-        <v>641.4392473095039</v>
+        <v>624.6448134426789</v>
       </c>
       <c r="D10" t="n">
-        <v>491.3226078971682</v>
+        <v>624.6448134426789</v>
       </c>
       <c r="E10" t="n">
-        <v>491.3226078971682</v>
+        <v>624.6448134426789</v>
       </c>
       <c r="F10" t="n">
-        <v>344.4326603992578</v>
+        <v>477.7548659447685</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0520293194875</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1259.157560278958</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X10" t="n">
-        <v>1031.168009380941</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.3754302374108</v>
+        <v>975.2294612008255</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,22 +5060,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>658.9255961109956</v>
+        <v>1057.61331560176</v>
       </c>
       <c r="C13" t="n">
-        <v>489.9894131830887</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038317</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797719</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611856</v>
+        <v>1688.043910473547</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138389</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703088</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036841</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.343372566517</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U16" t="n">
-        <v>1842.268145910715</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.583657704828</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.166487667867</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X16" t="n">
-        <v>1070.17693676985</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>849.3843576263199</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400706</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121638</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121638</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5695,7 +5695,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703104</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>139.234765840794</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>139.234765840794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232839</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408908</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429804</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270435</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,7 +5923,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.9192356072716</v>
+        <v>763.7541388327641</v>
       </c>
       <c r="C25" t="n">
-        <v>815.9830526793647</v>
+        <v>763.7541388327641</v>
       </c>
       <c r="D25" t="n">
-        <v>665.866413267029</v>
+        <v>763.7541388327641</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>615.8410452503709</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429801</v>
+        <v>468.9510977524606</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>301.7549984673406</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>160.0431673095391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>945.4026036630038</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6312,19 +6312,19 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2978.493192213311</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C28" t="n">
-        <v>2834.08695624706</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D28" t="n">
-        <v>2708.50026379638</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E28" t="n">
-        <v>2585.117117175643</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>2462.75711663939</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>2320.090964315926</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
-        <v>2202.90908011978</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>2145.35232372935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2249.630143176793</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>2535.361206719451</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>2949.80160191251</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>3395.853105660664</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>3837.304778337792</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>4230.875860063897</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>4547.593116654574</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>4489.992508229213</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>4294.92099021381</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>4030.375710519664</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>3800.221169275433</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>3535.333946200129</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>3331.874342263768</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>3135.611710081894</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6658,10 +6658,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6680,19 +6680,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380738</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311332</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979288</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.34019938252</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973198</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,28 +7093,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319313</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150012</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942643</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580102</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532431</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>3869.022106831312</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,13 +7597,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,7 +7810,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7822,25 +7822,25 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -7849,7 +7849,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>242.1695121525718</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447061</v>
+        <v>41.96479968017012</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>371.5073968180799</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851256</v>
+        <v>52.86845664851259</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>205.2000830738755</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>12.36040756680202</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>93.41236337186119</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2190043347733</v>
+        <v>133.2171269349661</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.6212754172172</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>40.64330621514844</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>152.3434691354493</v>
+        <v>166.0397529241853</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>38.13892827624309</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194301</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>112.6104454096921</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>15.70159709961396</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-7.46078767100878e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32460.91116143663</v>
+        <v>32460.91116143662</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="E2" t="n">
         <v>40357.32998450029</v>
@@ -26329,25 +26329,25 @@
         <v>40357.3299845003</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.32998450028</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="O2" t="n">
         <v>41052.0884932142</v>
@@ -26366,13 +26366,13 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973015</v>
+        <v>95186.49343973048</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>213599.1454818042</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.0103835996</v>
+        <v>22978.01038359969</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363189</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17443.3632666228</v>
+        <v>17443.36326662281</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26436,25 +26436,25 @@
         <v>12386.92018181815</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.77944491158</v>
       </c>
       <c r="K4" t="n">
         <v>20377.7794449116</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491163</v>
+        <v>20377.77944491166</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491166</v>
+        <v>20377.77944491167</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491169</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.77944491162</v>
       </c>
       <c r="P4" t="n">
         <v>20377.7794449116</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1314519.931297635</v>
+        <v>-1314949.490164224</v>
       </c>
       <c r="C6" t="n">
-        <v>-253642.3004610787</v>
+        <v>-253642.300461079</v>
       </c>
       <c r="D6" t="n">
         <v>-158455.8070213486</v>
       </c>
       <c r="E6" t="n">
-        <v>-398564.5818285801</v>
+        <v>-398599.3197540159</v>
       </c>
       <c r="F6" t="n">
-        <v>-73152.12002122494</v>
+        <v>-73186.85794666062</v>
       </c>
       <c r="G6" t="n">
-        <v>-73152.12002122494</v>
+        <v>-73186.85794666063</v>
       </c>
       <c r="H6" t="n">
-        <v>-73152.12002122498</v>
+        <v>-73186.85794666066</v>
       </c>
       <c r="I6" t="n">
-        <v>-73152.12002122498</v>
+        <v>-73186.85794666063</v>
       </c>
       <c r="J6" t="n">
         <v>-296088.952287417</v>
       </c>
       <c r="K6" t="n">
-        <v>-105467.8171892124</v>
+        <v>-105467.8171892125</v>
       </c>
       <c r="L6" t="n">
-        <v>-82489.80680561284</v>
+        <v>-82489.80680561287</v>
       </c>
       <c r="M6" t="n">
-        <v>-167544.8347411246</v>
+        <v>-167544.8347411247</v>
       </c>
       <c r="N6" t="n">
+        <v>-82489.8068056129</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-101917.5247992447</v>
+      </c>
+      <c r="P6" t="n">
         <v>-82489.80680561281</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-101917.5247992446</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-82489.8068056128</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26790,10 +26790,10 @@
         <v>742.1206963972897</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K2" t="n">
         <v>5.684341886080801e-14</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396915</v>
+        <v>72.85564646396938</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>742.1206963972897</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500278</v>
+        <v>89.28075900500312</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500278</v>
+        <v>89.28075900500312</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
         <v>5.684341886080801e-14</v>
@@ -27258,13 +27258,13 @@
         <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500278</v>
+        <v>89.28075900500312</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>259.6421064805537</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>236.4147444037937</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>107.0684453618556</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>31.24465028923928</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>57.31893511150571</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>307.4571019070323</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>35.6394846459454</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.002921565727888265</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720918</v>
+        <v>4.088124840720917</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503312</v>
+        <v>41.8675085250331</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
@@ -31051,37 +31051,37 @@
         <v>346.9744857001373</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078539</v>
+        <v>520.0248102078538</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020669</v>
+        <v>645.1367608020666</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382374</v>
+        <v>717.8389509382373</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419358</v>
+        <v>729.4543356419357</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570172</v>
+        <v>688.8030442570169</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517194</v>
+        <v>587.8774622517193</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934014</v>
+        <v>441.4714913934013</v>
       </c>
       <c r="R2" t="n">
         <v>256.8006720259356</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792801</v>
+        <v>93.158144807928</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025583</v>
+        <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576734</v>
+        <v>0.3270499872576733</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863086</v>
+        <v>2.187339625863085</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030928</v>
+        <v>21.12509586030927</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467203</v>
+        <v>75.30971957467202</v>
       </c>
       <c r="J3" t="n">
         <v>206.6556266698102</v>
@@ -31133,19 +31133,19 @@
         <v>353.2073816026369</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629476</v>
+        <v>474.9309130629475</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004843</v>
+        <v>554.2219745004842</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265575</v>
+        <v>568.8905810265574</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429595</v>
+        <v>520.4237398429594</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913466</v>
+        <v>417.6859325913465</v>
       </c>
       <c r="Q3" t="n">
         <v>279.2119845224528</v>
@@ -31154,10 +31154,10 @@
         <v>135.8069287005169</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092176</v>
+        <v>40.62887419092175</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404275</v>
+        <v>8.816513667404273</v>
       </c>
       <c r="U3" t="n">
         <v>0.1439039227541504</v>
@@ -31203,40 +31203,40 @@
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032494</v>
+        <v>55.14712864032493</v>
       </c>
       <c r="J4" t="n">
-        <v>129.649098983013</v>
+        <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585709</v>
+        <v>213.0532962585708</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283779</v>
+        <v>272.6348675283778</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795413</v>
+        <v>287.4552415795412</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288362</v>
+        <v>280.6201984288361</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443084</v>
+        <v>259.1981729443083</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219113</v>
+        <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
         <v>153.5550791735287</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924033</v>
+        <v>82.45395956924031</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878563</v>
+        <v>31.95799443878562</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881714</v>
+        <v>7.835293367881712</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,16 +32087,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>271.1474903386692</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>699.0496615458086</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>172.7144981745678</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.5330199802463</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734511</v>
+        <v>165.928581173451</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628733</v>
+        <v>299.9349591628732</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320796</v>
+        <v>409.3703458320794</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109647</v>
+        <v>487.4927177109646</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453449</v>
+        <v>500.0412720453448</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353304</v>
+        <v>458.7048328353302</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964499</v>
+        <v>356.6444664964498</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189519</v>
+        <v>219.1658015189518</v>
       </c>
       <c r="R2" t="n">
-        <v>41.2151342118035</v>
+        <v>41.21513421180344</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314354</v>
+        <v>79.81800000314348</v>
       </c>
       <c r="K3" t="n">
         <v>215.3659426282779</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5460454356452</v>
+        <v>336.3765332830733</v>
       </c>
       <c r="M3" t="n">
-        <v>412.087940578466</v>
+        <v>412.0879405784659</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432242</v>
+        <v>437.5488689432241</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985151</v>
+        <v>377.827495398515</v>
       </c>
       <c r="P3" t="n">
         <v>283.7115251770163</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364313</v>
+        <v>349.3074981722804</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>32.09222441672303</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.2899188663402</v>
+        <v>36.28991886634017</v>
       </c>
       <c r="K4" t="n">
         <v>190.783804432688</v>
@@ -34863,19 +34863,19 @@
         <v>300.224892788694</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413819</v>
+        <v>327.0391185413818</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080648</v>
+        <v>324.7523708080647</v>
       </c>
       <c r="O4" t="n">
-        <v>283.7833008583481</v>
+        <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868048</v>
+        <v>219.0673740868047</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183431</v>
+        <v>67.39303592183428</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096324</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,16 +35735,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>508.128623392977</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>556.4534171013642</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q28" t="n">
         <v>144.686904791938</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>77.54037261451921</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>45.87687150790109</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
